--- a/data/annotations/match_sample_for_validation-v4.xlsx
+++ b/data/annotations/match_sample_for_validation-v4.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F676F-79D0-C745-8DC3-3778EB1E0DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFFE1E-0570-B241-93A8-F033CCD276F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="26860" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="38280" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$701</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5653,10 +5656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5670,7 +5674,7 @@
     <col min="12" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" style="10" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="9" style="12" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="12" customWidth="1"/>
     <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5727,7 +5731,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -6522,13 +6526,13 @@
         <v>24</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -6793,7 +6797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -7276,7 +7280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -7329,7 +7333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>106</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
         <v>24</v>
@@ -7544,7 +7548,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>78</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P42" t="s">
         <v>24</v>
@@ -7918,7 +7922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>223</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>229</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>240</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>246</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -8286,13 +8290,13 @@
         <v>24</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R49" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>22</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -8451,7 +8455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>277</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>22</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
@@ -8772,7 +8776,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>246</v>
       </c>
@@ -8878,7 +8882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>304</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>309</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>314</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>323</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>325</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>330</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>335</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>345</v>
       </c>
@@ -9514,7 +9518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>323</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>360</v>
       </c>
@@ -9779,7 +9783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>363</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>366</v>
       </c>
@@ -9885,7 +9889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>363</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>375</v>
       </c>
@@ -9991,7 +9995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>378</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>381</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>392</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>395</v>
       </c>
@@ -10415,7 +10419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>398</v>
       </c>
@@ -10468,7 +10472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>403</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>366</v>
       </c>
@@ -10574,7 +10578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -10627,7 +10631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>419</v>
       </c>
@@ -10733,7 +10737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>363</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>38</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P98" t="s">
         <v>24</v>
@@ -10892,7 +10896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>430</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>435</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>438</v>
       </c>
@@ -11095,7 +11099,7 @@
         <v>31</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P102" t="s">
         <v>24</v>
@@ -11107,7 +11111,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -11213,7 +11217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>363</v>
       </c>
@@ -11266,7 +11270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>455</v>
       </c>
@@ -11319,7 +11323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -11372,7 +11376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -11425,7 +11429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>185</v>
       </c>
@@ -11478,7 +11482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>398</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>475</v>
       </c>
@@ -11637,7 +11641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>478</v>
       </c>
@@ -11690,7 +11694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>481</v>
       </c>
@@ -11743,7 +11747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>191</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>486</v>
       </c>
@@ -11849,7 +11853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>489</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>496</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -12061,7 +12065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>503</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>508</v>
       </c>
@@ -12167,7 +12171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>513</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>516</v>
       </c>
@@ -12273,7 +12277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>398</v>
       </c>
@@ -12326,7 +12330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>325</v>
       </c>
@@ -12379,7 +12383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -12432,7 +12436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>527</v>
       </c>
@@ -12529,7 +12533,7 @@
         <v>78</v>
       </c>
       <c r="O129" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P129" t="s">
         <v>24</v>
@@ -12538,7 +12542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>403</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>489</v>
       </c>
@@ -12697,7 +12701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>46</v>
       </c>
@@ -12859,7 +12863,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -12912,7 +12916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>314</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -13018,7 +13022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>554</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>298</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -13283,7 +13287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>101</v>
       </c>
@@ -13336,7 +13340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -13389,7 +13393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -13442,7 +13446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>573</v>
       </c>
@@ -13495,7 +13499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>335</v>
       </c>
@@ -13548,7 +13552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>580</v>
       </c>
@@ -13601,7 +13605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -13654,7 +13658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>107</v>
       </c>
@@ -13707,7 +13711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>591</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>596</v>
       </c>
@@ -13813,7 +13817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>601</v>
       </c>
@@ -13866,7 +13870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>606</v>
       </c>
@@ -13919,7 +13923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>455</v>
       </c>
@@ -14025,7 +14029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>435</v>
       </c>
@@ -14131,7 +14135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>613</v>
       </c>
@@ -14237,7 +14241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>618</v>
       </c>
@@ -14293,7 +14297,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>624</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>628</v>
       </c>
@@ -14399,7 +14403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>631</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>69</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>636</v>
       </c>
@@ -14558,7 +14562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>639</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>304</v>
       </c>
@@ -14664,7 +14668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>363</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>314</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>266</v>
       </c>
@@ -14823,7 +14827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>298</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>398</v>
       </c>
@@ -14929,7 +14933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>33</v>
       </c>
@@ -14982,7 +14986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>658</v>
       </c>
@@ -15035,7 +15039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>395</v>
       </c>
@@ -15088,7 +15092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>663</v>
       </c>
@@ -15141,7 +15145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>69</v>
       </c>
@@ -15194,7 +15198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>671</v>
       </c>
@@ -15247,7 +15251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>674</v>
       </c>
@@ -15300,7 +15304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>366</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>681</v>
       </c>
@@ -15406,7 +15410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>554</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>223</v>
       </c>
@@ -15512,7 +15516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>684</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>687</v>
       </c>
@@ -15618,7 +15622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -15671,7 +15675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>690</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>403</v>
       </c>
@@ -15830,7 +15834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>697</v>
       </c>
@@ -15883,7 +15887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>527</v>
       </c>
@@ -15936,7 +15940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -15989,7 +15993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -16042,7 +16046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>304</v>
       </c>
@@ -16095,7 +16099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>709</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>719</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>161</v>
       </c>
@@ -16307,7 +16311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>709</v>
       </c>
@@ -16360,7 +16364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -16413,7 +16417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>191</v>
       </c>
@@ -16466,7 +16470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>96</v>
       </c>
@@ -16519,7 +16523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>301</v>
       </c>
@@ -16572,7 +16576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>732</v>
       </c>
@@ -16625,7 +16629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>735</v>
       </c>
@@ -16678,7 +16682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>738</v>
       </c>
@@ -16731,7 +16735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>508</v>
       </c>
@@ -16784,7 +16788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>687</v>
       </c>
@@ -16837,7 +16841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -16890,7 +16894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>636</v>
       </c>
@@ -16943,7 +16947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>161</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>185</v>
       </c>
@@ -17049,7 +17053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>191</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>304</v>
       </c>
@@ -17155,7 +17159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>438</v>
       </c>
@@ -17208,7 +17212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>761</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>269</v>
       </c>
@@ -17314,7 +17318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>455</v>
       </c>
@@ -17367,7 +17371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>766</v>
       </c>
@@ -17473,7 +17477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>658</v>
       </c>
@@ -17526,7 +17530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>777</v>
       </c>
@@ -17579,7 +17583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>781</v>
       </c>
@@ -17632,7 +17636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>613</v>
       </c>
@@ -17685,7 +17689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>786</v>
       </c>
@@ -17738,7 +17742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -17791,7 +17795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>793</v>
       </c>
@@ -17844,7 +17848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>796</v>
       </c>
@@ -17897,7 +17901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>793</v>
       </c>
@@ -17950,7 +17954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>801</v>
       </c>
@@ -18003,7 +18007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>101</v>
       </c>
@@ -18056,7 +18060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>86</v>
       </c>
@@ -18109,7 +18113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>810</v>
       </c>
@@ -18162,7 +18166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -18268,7 +18272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>628</v>
       </c>
@@ -18374,7 +18378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>817</v>
       </c>
@@ -18427,7 +18431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>415</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>824</v>
       </c>
@@ -18533,7 +18537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>131</v>
       </c>
@@ -18586,7 +18590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>345</v>
       </c>
@@ -18639,7 +18643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>831</v>
       </c>
@@ -18692,7 +18696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>684</v>
       </c>
@@ -18745,7 +18749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>835</v>
       </c>
@@ -18798,7 +18802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>72</v>
       </c>
@@ -18851,7 +18855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>503</v>
       </c>
@@ -18904,7 +18908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>844</v>
       </c>
@@ -18957,7 +18961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>229</v>
       </c>
@@ -19010,7 +19014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>687</v>
       </c>
@@ -19063,7 +19067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>849</v>
       </c>
@@ -19116,7 +19120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>209</v>
       </c>
@@ -19169,7 +19173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>613</v>
       </c>
@@ -19222,7 +19226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>191</v>
       </c>
@@ -19275,7 +19279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>860</v>
       </c>
@@ -19328,7 +19332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>663</v>
       </c>
@@ -19381,7 +19385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>363</v>
       </c>
@@ -19434,7 +19438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>596</v>
       </c>
@@ -19487,7 +19491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>810</v>
       </c>
@@ -19540,7 +19544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>46</v>
       </c>
@@ -19593,7 +19597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>867</v>
       </c>
@@ -19646,7 +19650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>543</v>
       </c>
@@ -19699,7 +19703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>871</v>
       </c>
@@ -19805,7 +19809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>876</v>
       </c>
@@ -19858,7 +19862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>636</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>886</v>
       </c>
@@ -19964,7 +19968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>573</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>246</v>
       </c>
@@ -20070,7 +20074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>363</v>
       </c>
@@ -20176,7 +20180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>330</v>
       </c>
@@ -20229,7 +20233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>636</v>
       </c>
@@ -20282,7 +20286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>681</v>
       </c>
@@ -20335,7 +20339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>223</v>
       </c>
@@ -20388,7 +20392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>817</v>
       </c>
@@ -20441,7 +20445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>69</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>496</v>
       </c>
@@ -20547,7 +20551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>69</v>
       </c>
@@ -20600,7 +20604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>185</v>
       </c>
@@ -20706,7 +20710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>403</v>
       </c>
@@ -20759,7 +20763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>919</v>
       </c>
@@ -20812,7 +20816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>375</v>
       </c>
@@ -20865,7 +20869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>86</v>
       </c>
@@ -20918,7 +20922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>924</v>
       </c>
@@ -20971,7 +20975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -21024,7 +21028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>860</v>
       </c>
@@ -21077,7 +21081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>435</v>
       </c>
@@ -21130,7 +21134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>935</v>
       </c>
@@ -21183,7 +21187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>938</v>
       </c>
@@ -21236,7 +21240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>941</v>
       </c>
@@ -21289,7 +21293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>944</v>
       </c>
@@ -21342,7 +21346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>246</v>
       </c>
@@ -21395,7 +21399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>363</v>
       </c>
@@ -21448,7 +21452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>185</v>
       </c>
@@ -21501,7 +21505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>366</v>
       </c>
@@ -21554,7 +21558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -21660,7 +21664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>345</v>
       </c>
@@ -21713,7 +21717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>966</v>
       </c>
@@ -21766,7 +21770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>39</v>
       </c>
@@ -21819,7 +21823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -21872,7 +21876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>438</v>
       </c>
@@ -21925,7 +21929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>618</v>
       </c>
@@ -21978,7 +21982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>979</v>
       </c>
@@ -22031,7 +22035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>489</v>
       </c>
@@ -22084,7 +22088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>435</v>
       </c>
@@ -22137,7 +22141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>209</v>
       </c>
@@ -22190,7 +22194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>298</v>
       </c>
@@ -22243,7 +22247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>687</v>
       </c>
@@ -22296,7 +22300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>33</v>
       </c>
@@ -22349,7 +22353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>631</v>
       </c>
@@ -22402,7 +22406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>997</v>
       </c>
@@ -22455,7 +22459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1000</v>
       </c>
@@ -22508,7 +22512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1003</v>
       </c>
@@ -22561,7 +22565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>489</v>
       </c>
@@ -22614,7 +22618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>732</v>
       </c>
@@ -22667,7 +22671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>403</v>
       </c>
@@ -22720,7 +22724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1014</v>
       </c>
@@ -22773,7 +22777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>137</v>
       </c>
@@ -22826,7 +22830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>101</v>
       </c>
@@ -22879,7 +22883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>204</v>
       </c>
@@ -22932,7 +22936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1023</v>
       </c>
@@ -22985,7 +22989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>613</v>
       </c>
@@ -23038,7 +23042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1028</v>
       </c>
@@ -23091,7 +23095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1031</v>
       </c>
@@ -23144,7 +23148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>107</v>
       </c>
@@ -23197,7 +23201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1036</v>
       </c>
@@ -23250,7 +23254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1038</v>
       </c>
@@ -23303,7 +23307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>618</v>
       </c>
@@ -23356,7 +23360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1043</v>
       </c>
@@ -23409,7 +23413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>191</v>
       </c>
@@ -23462,7 +23466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1047</v>
       </c>
@@ -23515,7 +23519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1049</v>
       </c>
@@ -23568,7 +23572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>282</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>96</v>
       </c>
@@ -23674,7 +23678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1054</v>
       </c>
@@ -23727,7 +23731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1057</v>
       </c>
@@ -23780,7 +23784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>91</v>
       </c>
@@ -23833,7 +23837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>131</v>
       </c>
@@ -23886,7 +23890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>79</v>
       </c>
@@ -23939,7 +23943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>801</v>
       </c>
@@ -23992,7 +23996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>743</v>
       </c>
@@ -24045,7 +24049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>282</v>
       </c>
@@ -24098,7 +24102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>101</v>
       </c>
@@ -24151,7 +24155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1074</v>
       </c>
@@ -24204,7 +24208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>152</v>
       </c>
@@ -24257,7 +24261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>69</v>
       </c>
@@ -24310,7 +24314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>246</v>
       </c>
@@ -24363,7 +24367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>481</v>
       </c>
@@ -24416,7 +24420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>204</v>
       </c>
@@ -24469,7 +24473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>886</v>
       </c>
@@ -24522,7 +24526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>185</v>
       </c>
@@ -24575,7 +24579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>395</v>
       </c>
@@ -24628,7 +24632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>185</v>
       </c>
@@ -24681,7 +24685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -24734,7 +24738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1036</v>
       </c>
@@ -24787,7 +24791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>403</v>
       </c>
@@ -24840,7 +24844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>33</v>
       </c>
@@ -24893,7 +24897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>860</v>
       </c>
@@ -24946,7 +24950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>475</v>
       </c>
@@ -24999,7 +25003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -25052,7 +25056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1107</v>
       </c>
@@ -25108,7 +25112,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1000</v>
       </c>
@@ -25161,7 +25165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>658</v>
       </c>
@@ -25214,7 +25218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -25267,7 +25271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>636</v>
       </c>
@@ -25320,7 +25324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>786</v>
       </c>
@@ -25373,7 +25377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1117</v>
       </c>
@@ -25426,7 +25430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>107</v>
       </c>
@@ -25479,7 +25483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>573</v>
       </c>
@@ -25532,7 +25536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>191</v>
       </c>
@@ -25585,7 +25589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>96</v>
       </c>
@@ -25638,7 +25642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1126</v>
       </c>
@@ -25691,7 +25695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>475</v>
       </c>
@@ -25744,7 +25748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>69</v>
       </c>
@@ -25797,7 +25801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>508</v>
       </c>
@@ -25850,7 +25854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>893</v>
       </c>
@@ -25903,7 +25907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>835</v>
       </c>
@@ -25956,7 +25960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1137</v>
       </c>
@@ -26009,7 +26013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1142</v>
       </c>
@@ -26062,7 +26066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>761</v>
       </c>
@@ -26115,7 +26119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>478</v>
       </c>
@@ -26168,7 +26172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1028</v>
       </c>
@@ -26221,7 +26225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1155</v>
       </c>
@@ -26274,7 +26278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>810</v>
       </c>
@@ -26327,7 +26331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>532</v>
       </c>
@@ -26380,7 +26384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>591</v>
       </c>
@@ -26433,7 +26437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>72</v>
       </c>
@@ -26486,7 +26490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -26539,7 +26543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>246</v>
       </c>
@@ -26592,7 +26596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1167</v>
       </c>
@@ -26645,7 +26649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>25</v>
       </c>
@@ -26698,7 +26702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>455</v>
       </c>
@@ -26751,7 +26755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>282</v>
       </c>
@@ -26804,7 +26808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>185</v>
       </c>
@@ -26857,7 +26861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>152</v>
       </c>
@@ -26910,7 +26914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>636</v>
       </c>
@@ -26963,7 +26967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1179</v>
       </c>
@@ -27016,7 +27020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>191</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>658</v>
       </c>
@@ -27122,7 +27126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1188</v>
       </c>
@@ -27175,7 +27179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>218</v>
       </c>
@@ -27228,7 +27232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>101</v>
       </c>
@@ -27281,7 +27285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1194</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>636</v>
       </c>
@@ -27387,7 +27391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>438</v>
       </c>
@@ -27440,7 +27444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>137</v>
       </c>
@@ -27493,7 +27497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>301</v>
       </c>
@@ -27546,7 +27550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>185</v>
       </c>
@@ -27599,7 +27603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1207</v>
       </c>
@@ -27652,7 +27656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>860</v>
       </c>
@@ -27705,7 +27709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1036</v>
       </c>
@@ -27758,7 +27762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1057</v>
       </c>
@@ -27811,7 +27815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1215</v>
       </c>
@@ -27864,7 +27868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>266</v>
       </c>
@@ -27917,7 +27921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>684</v>
       </c>
@@ -27970,7 +27974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>867</v>
       </c>
@@ -28023,7 +28027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1223</v>
       </c>
@@ -28076,7 +28080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>52</v>
       </c>
@@ -28129,7 +28133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>246</v>
       </c>
@@ -28182,7 +28186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>69</v>
       </c>
@@ -28235,7 +28239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>72</v>
       </c>
@@ -28288,7 +28292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>96</v>
       </c>
@@ -28341,7 +28345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>39</v>
       </c>
@@ -28394,7 +28398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1142</v>
       </c>
@@ -28447,7 +28451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>378</v>
       </c>
@@ -28500,7 +28504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>573</v>
       </c>
@@ -28553,7 +28557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>147</v>
       </c>
@@ -28606,7 +28610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1248</v>
       </c>
@@ -28659,7 +28663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>33</v>
       </c>
@@ -28712,7 +28716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>618</v>
       </c>
@@ -28765,7 +28769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>781</v>
       </c>
@@ -28818,7 +28822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>298</v>
       </c>
@@ -28871,7 +28875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>152</v>
       </c>
@@ -28924,7 +28928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>16</v>
       </c>
@@ -28977,7 +28981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1261</v>
       </c>
@@ -29030,7 +29034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>33</v>
       </c>
@@ -29083,7 +29087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>69</v>
       </c>
@@ -29136,7 +29140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>325</v>
       </c>
@@ -29189,7 +29193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>161</v>
       </c>
@@ -29242,7 +29246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>919</v>
       </c>
@@ -29295,7 +29299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1223</v>
       </c>
@@ -29348,7 +29352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>86</v>
       </c>
@@ -29401,7 +29405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>246</v>
       </c>
@@ -29454,7 +29458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1038</v>
       </c>
@@ -29507,7 +29511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>107</v>
       </c>
@@ -29560,7 +29564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>786</v>
       </c>
@@ -29613,7 +29617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>72</v>
       </c>
@@ -29666,7 +29670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1284</v>
       </c>
@@ -29719,7 +29723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>152</v>
       </c>
@@ -29772,7 +29776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>39</v>
       </c>
@@ -29825,7 +29829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>793</v>
       </c>
@@ -29878,7 +29882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>618</v>
       </c>
@@ -29931,7 +29935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1294</v>
       </c>
@@ -29984,7 +29988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>438</v>
       </c>
@@ -30037,7 +30041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>979</v>
       </c>
@@ -30090,7 +30094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>435</v>
       </c>
@@ -30143,7 +30147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>430</v>
       </c>
@@ -30196,7 +30200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -30249,7 +30253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1036</v>
       </c>
@@ -30302,7 +30306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>684</v>
       </c>
@@ -30355,7 +30359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>180</v>
       </c>
@@ -30408,7 +30412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>415</v>
       </c>
@@ -30461,7 +30465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1309</v>
       </c>
@@ -30514,7 +30518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>709</v>
       </c>
@@ -30567,7 +30571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>697</v>
       </c>
@@ -30620,7 +30624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>209</v>
       </c>
@@ -30673,7 +30677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>919</v>
       </c>
@@ -30726,7 +30730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>69</v>
       </c>
@@ -30779,7 +30783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>781</v>
       </c>
@@ -30832,7 +30836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>398</v>
       </c>
@@ -30885,7 +30889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1028</v>
       </c>
@@ -30938,7 +30942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1324</v>
       </c>
@@ -30991,7 +30995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>455</v>
       </c>
@@ -31044,7 +31048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>298</v>
       </c>
@@ -31097,7 +31101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>39</v>
       </c>
@@ -31150,7 +31154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>33</v>
       </c>
@@ -31203,7 +31207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>16</v>
       </c>
@@ -31256,7 +31260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>363</v>
       </c>
@@ -31309,7 +31313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>101</v>
       </c>
@@ -31362,7 +31366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>475</v>
       </c>
@@ -31415,7 +31419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>360</v>
       </c>
@@ -31468,7 +31472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>161</v>
       </c>
@@ -31521,7 +31525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>246</v>
       </c>
@@ -31574,7 +31578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1215</v>
       </c>
@@ -31627,7 +31631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>738</v>
       </c>
@@ -31680,7 +31684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1345</v>
       </c>
@@ -31733,7 +31737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1348</v>
       </c>
@@ -31786,7 +31790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>573</v>
       </c>
@@ -31839,7 +31843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1142</v>
       </c>
@@ -31892,7 +31896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="495" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>867</v>
       </c>
@@ -31945,7 +31949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>438</v>
       </c>
@@ -31998,7 +32002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1357</v>
       </c>
@@ -32051,7 +32055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>101</v>
       </c>
@@ -32104,7 +32108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>496</v>
       </c>
@@ -32157,7 +32161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1364</v>
       </c>
@@ -32213,7 +32217,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="501" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>366</v>
       </c>
@@ -32266,7 +32270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="502" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>360</v>
       </c>
@@ -32319,7 +32323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>419</v>
       </c>
@@ -32422,10 +32426,10 @@
         <v>1080</v>
       </c>
       <c r="Q504" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="505" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="505" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>419</v>
       </c>
@@ -32478,7 +32482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>786</v>
       </c>
@@ -32531,7 +32535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>91</v>
       </c>
@@ -32584,7 +32588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>886</v>
       </c>
@@ -32637,7 +32641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>52</v>
       </c>
@@ -32690,7 +32694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>212</v>
       </c>
@@ -32743,7 +32747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>16</v>
       </c>
@@ -32796,7 +32800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>191</v>
       </c>
@@ -32849,7 +32853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>860</v>
       </c>
@@ -32902,7 +32906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>844</v>
       </c>
@@ -32955,7 +32959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>363</v>
       </c>
@@ -33008,7 +33012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="516" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1028</v>
       </c>
@@ -33061,7 +33065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>209</v>
       </c>
@@ -33114,7 +33118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="518" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1395</v>
       </c>
@@ -33167,7 +33171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="519" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>375</v>
       </c>
@@ -33220,7 +33224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="520" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>246</v>
       </c>
@@ -33273,7 +33277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>101</v>
       </c>
@@ -33326,7 +33330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>107</v>
       </c>
@@ -33379,7 +33383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1402</v>
       </c>
@@ -33432,7 +33436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="524" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>438</v>
       </c>
@@ -33485,7 +33489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="525" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>697</v>
       </c>
@@ -33538,7 +33542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>33</v>
       </c>
@@ -33591,7 +33595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1413</v>
       </c>
@@ -33644,7 +33648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>658</v>
       </c>
@@ -33697,7 +33701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="529" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>663</v>
       </c>
@@ -33750,7 +33754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="530" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>142</v>
       </c>
@@ -33803,7 +33807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>101</v>
       </c>
@@ -33856,7 +33860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>481</v>
       </c>
@@ -33909,7 +33913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="533" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>335</v>
       </c>
@@ -33962,7 +33966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="534" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>209</v>
       </c>
@@ -34015,7 +34019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>438</v>
       </c>
@@ -34068,7 +34072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1023</v>
       </c>
@@ -34121,7 +34125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1429</v>
       </c>
@@ -34174,7 +34178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="538" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>142</v>
       </c>
@@ -34227,7 +34231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>152</v>
       </c>
@@ -34280,7 +34284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>935</v>
       </c>
@@ -34333,7 +34337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>419</v>
       </c>
@@ -34386,7 +34390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1441</v>
       </c>
@@ -34439,7 +34443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="543" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1444</v>
       </c>
@@ -34492,7 +34496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1447</v>
       </c>
@@ -34545,7 +34549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1036</v>
       </c>
@@ -34598,7 +34602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>886</v>
       </c>
@@ -34651,7 +34655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>508</v>
       </c>
@@ -34704,7 +34708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1453</v>
       </c>
@@ -34757,7 +34761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>979</v>
       </c>
@@ -34810,7 +34814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="550" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>16</v>
       </c>
@@ -34863,7 +34867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>314</v>
       </c>
@@ -34916,7 +34920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>191</v>
       </c>
@@ -34969,7 +34973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1223</v>
       </c>
@@ -35022,7 +35026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1461</v>
       </c>
@@ -35075,7 +35079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>360</v>
       </c>
@@ -35128,7 +35132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>415</v>
       </c>
@@ -35181,7 +35185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>266</v>
       </c>
@@ -35234,7 +35238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1294</v>
       </c>
@@ -35290,7 +35294,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="559" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>101</v>
       </c>
@@ -35340,7 +35344,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="560" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1031</v>
       </c>
@@ -35443,10 +35447,10 @@
         <v>1080</v>
       </c>
       <c r="Q561" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="562" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="562" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1474</v>
       </c>
@@ -35499,7 +35503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>719</v>
       </c>
@@ -35552,7 +35556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="564" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -35605,7 +35609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1036</v>
       </c>
@@ -35658,7 +35662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>137</v>
       </c>
@@ -35711,7 +35715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>240</v>
       </c>
@@ -35764,7 +35768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="568" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1483</v>
       </c>
@@ -35861,7 +35865,7 @@
         <v>106</v>
       </c>
       <c r="O569" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P569" t="s">
         <v>1080</v>
@@ -35870,7 +35874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="570" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>540</v>
       </c>
@@ -35923,7 +35927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="571" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1491</v>
       </c>
@@ -35976,7 +35980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1496</v>
       </c>
@@ -36082,10 +36086,10 @@
         <v>1080</v>
       </c>
       <c r="Q573" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="574" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="574" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>246</v>
       </c>
@@ -36138,7 +36142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1499</v>
       </c>
@@ -36191,7 +36195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="576" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>282</v>
       </c>
@@ -36244,7 +36248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>554</v>
       </c>
@@ -36297,7 +36301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1504</v>
       </c>
@@ -36350,7 +36354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1348</v>
       </c>
@@ -36403,7 +36407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>298</v>
       </c>
@@ -36456,7 +36460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>309</v>
       </c>
@@ -36509,7 +36513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="582" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1049</v>
       </c>
@@ -36562,7 +36566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="583" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>301</v>
       </c>
@@ -36615,7 +36619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>631</v>
       </c>
@@ -36668,7 +36672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>223</v>
       </c>
@@ -36721,7 +36725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="586" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1167</v>
       </c>
@@ -36774,7 +36778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="587" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>796</v>
       </c>
@@ -36827,7 +36831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="588" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>246</v>
       </c>
@@ -36880,7 +36884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>810</v>
       </c>
@@ -36933,7 +36937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>185</v>
       </c>
@@ -36986,7 +36990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>16</v>
       </c>
@@ -37039,7 +37043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="592" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1529</v>
       </c>
@@ -37092,7 +37096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="593" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>218</v>
       </c>
@@ -37145,7 +37149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="594" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1155</v>
       </c>
@@ -37198,7 +37202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>709</v>
       </c>
@@ -37251,7 +37255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="596" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>438</v>
       </c>
@@ -37304,7 +37308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="597" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>107</v>
       </c>
@@ -37357,7 +37361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="598" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1023</v>
       </c>
@@ -37410,7 +37414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1357</v>
       </c>
@@ -37463,7 +37467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="600" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>786</v>
       </c>
@@ -37516,7 +37520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="601" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1049</v>
       </c>
@@ -37569,7 +37573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="602" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>786</v>
       </c>
@@ -37622,7 +37626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="603" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1549</v>
       </c>
@@ -37675,7 +37679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="604" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>152</v>
       </c>
@@ -37728,7 +37732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="605" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>39</v>
       </c>
@@ -37781,7 +37785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>101</v>
       </c>
@@ -37834,7 +37838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1557</v>
       </c>
@@ -37887,7 +37891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1560</v>
       </c>
@@ -37940,7 +37944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1563</v>
       </c>
@@ -37993,7 +37997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>395</v>
       </c>
@@ -38046,7 +38050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>395</v>
       </c>
@@ -38099,7 +38103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="612" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>96</v>
       </c>
@@ -38152,7 +38156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>363</v>
       </c>
@@ -38205,7 +38209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="614" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>246</v>
       </c>
@@ -38258,7 +38262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>33</v>
       </c>
@@ -38311,7 +38315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="616" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1572</v>
       </c>
@@ -38364,7 +38368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="617" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>496</v>
       </c>
@@ -38417,7 +38421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1575</v>
       </c>
@@ -38470,7 +38474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="619" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>639</v>
       </c>
@@ -38523,7 +38527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="620" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>166</v>
       </c>
@@ -38576,7 +38580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="621" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1036</v>
       </c>
@@ -38629,7 +38633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="622" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>175</v>
       </c>
@@ -38682,7 +38686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>867</v>
       </c>
@@ -38735,7 +38739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="624" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>52</v>
       </c>
@@ -38788,7 +38792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1593</v>
       </c>
@@ -38841,7 +38845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>684</v>
       </c>
@@ -38894,7 +38898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="627" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>658</v>
       </c>
@@ -38947,7 +38951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="628" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>301</v>
       </c>
@@ -39000,7 +39004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>175</v>
       </c>
@@ -39053,7 +39057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>403</v>
       </c>
@@ -39106,7 +39110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="631" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>636</v>
       </c>
@@ -39159,7 +39163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>161</v>
       </c>
@@ -39212,7 +39216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>419</v>
       </c>
@@ -39265,7 +39269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="634" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>1049</v>
       </c>
@@ -39318,7 +39322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>246</v>
       </c>
@@ -39371,7 +39375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>298</v>
       </c>
@@ -39474,13 +39478,13 @@
         <v>1080</v>
       </c>
       <c r="Q637" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R637" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="638" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1616</v>
       </c>
@@ -39533,7 +39537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1621</v>
       </c>
@@ -39586,7 +39590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="640" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>91</v>
       </c>
@@ -39639,7 +39643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1626</v>
       </c>
@@ -39692,7 +39696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>204</v>
       </c>
@@ -39745,7 +39749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>330</v>
       </c>
@@ -39798,7 +39802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>438</v>
       </c>
@@ -39851,7 +39855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>687</v>
       </c>
@@ -39904,7 +39908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>363</v>
       </c>
@@ -39957,7 +39961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="647" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1486</v>
       </c>
@@ -40010,7 +40014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="648" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>513</v>
       </c>
@@ -40063,7 +40067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>628</v>
       </c>
@@ -40116,7 +40120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1639</v>
       </c>
@@ -40169,7 +40173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="651" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1644</v>
       </c>
@@ -40222,7 +40226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1647</v>
       </c>
@@ -40275,7 +40279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>438</v>
       </c>
@@ -40328,7 +40332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>16</v>
       </c>
@@ -40381,7 +40385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>246</v>
       </c>
@@ -40434,7 +40438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>218</v>
       </c>
@@ -40487,7 +40491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="657" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>844</v>
       </c>
@@ -40540,7 +40544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="658" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>743</v>
       </c>
@@ -40593,7 +40597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>893</v>
       </c>
@@ -40646,7 +40650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="660" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>831</v>
       </c>
@@ -40699,7 +40703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>796</v>
       </c>
@@ -40752,7 +40756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="662" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>16</v>
       </c>
@@ -40805,7 +40809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="663" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>781</v>
       </c>
@@ -40858,7 +40862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="664" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>435</v>
       </c>
@@ -40911,7 +40915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="665" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1402</v>
       </c>
@@ -40964,7 +40968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="666" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>489</v>
       </c>
@@ -41017,7 +41021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>781</v>
       </c>
@@ -41070,7 +41074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1107</v>
       </c>
@@ -41123,7 +41127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="669" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>738</v>
       </c>
@@ -41176,7 +41180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>16</v>
       </c>
@@ -41229,7 +41233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1679</v>
       </c>
@@ -41282,7 +41286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="672" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>639</v>
       </c>
@@ -41335,7 +41339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="673" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>101</v>
       </c>
@@ -41388,7 +41392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>91</v>
       </c>
@@ -41441,7 +41445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="675" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1688</v>
       </c>
@@ -41494,7 +41498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>738</v>
       </c>
@@ -41547,7 +41551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>687</v>
       </c>
@@ -41600,7 +41604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="678" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>419</v>
       </c>
@@ -41653,7 +41657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>573</v>
       </c>
@@ -41706,7 +41710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="680" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>860</v>
       </c>
@@ -41759,7 +41763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="681" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1529</v>
       </c>
@@ -41812,7 +41816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1698</v>
       </c>
@@ -41865,7 +41869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="683" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>246</v>
       </c>
@@ -41918,7 +41922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1701</v>
       </c>
@@ -41971,7 +41975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1294</v>
       </c>
@@ -42024,7 +42028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>16</v>
       </c>
@@ -42077,7 +42081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>101</v>
       </c>
@@ -42130,7 +42134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>886</v>
       </c>
@@ -42183,7 +42187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1047</v>
       </c>
@@ -42236,7 +42240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>714</v>
       </c>
@@ -42289,7 +42293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="691" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>979</v>
       </c>
@@ -42342,7 +42346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>107</v>
       </c>
@@ -42395,7 +42399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>687</v>
       </c>
@@ -42448,7 +42452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>606</v>
       </c>
@@ -42501,7 +42505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="695" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1194</v>
       </c>
@@ -42554,7 +42558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>793</v>
       </c>
@@ -42607,7 +42611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>52</v>
       </c>
@@ -42660,7 +42664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="698" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>363</v>
       </c>
@@ -42713,7 +42717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="699" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>844</v>
       </c>
@@ -42766,7 +42770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>298</v>
       </c>
@@ -42819,7 +42823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>246</v>
       </c>
@@ -42873,6 +42877,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R701" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="T"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
